--- a/optim-stratif/Testing_outputs/tests.xlsx
+++ b/optim-stratif/Testing_outputs/tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="17220" windowHeight="7152" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="17220" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>nh</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Design_var</t>
+  </si>
+  <si>
+    <t>St.Dev.</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -688,10 +691,10 @@
   <dimension ref="A1:R1447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
@@ -955,6 +958,9 @@
       <c r="Q5">
         <f>SUM(L5:P5)</f>
         <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -34093,7 +34099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/optim-stratif/Testing_outputs/tests.xlsx
+++ b/optim-stratif/Testing_outputs/tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>nh</t>
   </si>
@@ -81,7 +81,13 @@
     <t>Design_var</t>
   </si>
   <si>
-    <t>St.Dev.</t>
+    <t xml:space="preserve">Therefore RMSE^2 in output is the design variance :) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St.Dev. (or RMSE :)) </t>
+  </si>
+  <si>
+    <t>desvar</t>
   </si>
 </sst>
 </file>
@@ -690,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R1447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,6 +856,9 @@
         <f>VAR(E2:E1447)</f>
         <v>0.81816028176458144</v>
       </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
@@ -960,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1153,6 +1162,12 @@
       <c r="J10">
         <v>5</v>
       </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
@@ -1184,6 +1199,12 @@
       </c>
       <c r="J11">
         <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11">
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
